--- a/biology/Médecine/Artère_mésentérique_supérieure/Artère_mésentérique_supérieure.xlsx
+++ b/biology/Médecine/Artère_mésentérique_supérieure/Artère_mésentérique_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Artère_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère mésentérique supérieure (AMS) est une artère qui naît de la face antérieure de l'aorte abdominale, en regard de la première vertèbre lombaire (L1) juste en dessous de l'origine du tronc cœliaque. Elle vascularise l'intestin depuis la partie inférieure du duodénum jusqu'au 2/3 latéral du côlon transverse, ainsi que le pancréas.
 Elle naît au niveau de la première vertèbre lombaire chez l'adulte, habituellement 1 cm sous le tronc cœliaque. Elle chemine derrière le pancréas et à gauche de la veine du même nom, la veine mésentérique supérieure. Après avoir passé le pancréas en avant du processus uncinatus, elle donne différentes branches, à droite et à gauche.
@@ -495,7 +507,7 @@
 L'artère colique ascendante
 L'artère colique droite qui se dirige vers l'angle colique droit ou hépatique
 L'artère colique moyenne qui vascularise les 2/3 droits du colon transverse.
-Elle s'anastomose avec l'artère mésentérique inférieure au niveau de 3 arcades[1] :
+Elle s'anastomose avec l'artère mésentérique inférieure au niveau de 3 arcades :
 l'arcade de Riolan
 l'arcade de Villemin
 l'arcade de Drummond (artère marginale de Drummond)
@@ -510,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Artère_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,11 +540,13 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une occlusion mène le plus souvent vers un infarctus intestinal (infarctus mésentérique) et a souvent des conséquences dévastatrices : jusqu'à 80 % des occlusions provoquent la mort[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une occlusion mène le plus souvent vers un infarctus intestinal (infarctus mésentérique) et a souvent des conséquences dévastatrices : jusqu'à 80 % des occlusions provoquent la mort.
 Un rétrécissement de cette artère peut provoquer un angor mésentérique caractérisé par des douleurs abdominales lors de la digestion.
-Le syndrome de l'artère mésentérique supérieure est caractérisé par douleur, vomissements, et dysphagie[3].
+Le syndrome de l'artère mésentérique supérieure est caractérisé par douleur, vomissements, et dysphagie.
 </t>
         </is>
       </c>
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Artère_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,9 +575,11 @@
           <t>Exploration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle peut être accessible par écho Doppler[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle peut être accessible par écho Doppler.
 Elle peut être visualisée lors d'une aortographie consistant en l'injection d'un produit de contraste iodé dans l'aorte avec prise d'images radiologiques.
 Le scanner, avec injection d'un produit de contraste iodé, permet de visualiser ses premiers centimètres.</t>
         </is>
